--- a/请假表模板.xlsx
+++ b/请假表模板.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="202507081256000390" r:id="rId3" sheetId="1"/>
+    <sheet name="202507280906000490" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -90,7 +90,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -98,30 +98,28 @@
   <cols>
     <col min="1" max="1" width="6.0" customWidth="true"/>
     <col min="2" max="2" width="36.0" customWidth="true"/>
-    <col min="3" max="3" width="21.0" customWidth="true"/>
-    <col min="4" max="4" width="24.0" customWidth="true"/>
-    <col min="5" max="5" width="12.0" customWidth="true"/>
-    <col min="6" max="6" width="12.0" customWidth="true"/>
-    <col min="7" max="7" width="19.0" customWidth="true"/>
-    <col min="8" max="8" width="19.0" customWidth="true"/>
-    <col min="9" max="9" width="19.0" customWidth="true"/>
+    <col min="3" max="3" width="12.0" customWidth="true"/>
+    <col min="4" max="4" width="17.0" customWidth="true"/>
+    <col min="5" max="5" width="17.0" customWidth="true"/>
+    <col min="6" max="6" width="6.0" customWidth="true"/>
+    <col min="7" max="7" width="21.0" customWidth="true"/>
+    <col min="8" max="8" width="12.0" customWidth="true"/>
+    <col min="9" max="9" width="189.0" customWidth="true"/>
     <col min="10" max="10" width="15.0" customWidth="true"/>
-    <col min="11" max="11" width="20.0" customWidth="true"/>
-    <col min="12" max="12" width="9.0" customWidth="true"/>
-    <col min="13" max="13" width="31.0" customWidth="true"/>
+    <col min="11" max="11" width="59.0" customWidth="true"/>
+    <col min="12" max="12" width="12.0" customWidth="true"/>
+    <col min="13" max="13" width="21.0" customWidth="true"/>
     <col min="14" max="14" width="19.0" customWidth="true"/>
-    <col min="15" max="15" width="103.0" customWidth="true"/>
+    <col min="15" max="15" width="9.0" customWidth="true"/>
     <col min="16" max="16" width="15.0" customWidth="true"/>
     <col min="17" max="17" width="12.0" customWidth="true"/>
-    <col min="18" max="18" width="17.0" customWidth="true"/>
-    <col min="19" max="19" width="17.0" customWidth="true"/>
-    <col min="20" max="20" width="6.0" customWidth="true"/>
-    <col min="21" max="21" width="21.0" customWidth="true"/>
-    <col min="22" max="22" width="12.0" customWidth="true"/>
-    <col min="23" max="23" width="189.0" customWidth="true"/>
-    <col min="24" max="24" width="15.0" customWidth="true"/>
-    <col min="25" max="25" width="59.0" customWidth="true"/>
-    <col min="26" max="26" width="12.0" customWidth="true"/>
+    <col min="18" max="18" width="12.0" customWidth="true"/>
+    <col min="19" max="19" width="19.0" customWidth="true"/>
+    <col min="20" max="20" width="31.0" customWidth="true"/>
+    <col min="21" max="21" width="24.0" customWidth="true"/>
+    <col min="22" max="22" width="19.0" customWidth="true"/>
+    <col min="23" max="23" width="19.0" customWidth="true"/>
+    <col min="24" max="24" width="86.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -137,122 +135,112 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>请假类型</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>开始时间</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>结束时间</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>时长</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>请假事由</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>休假地点</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>图片</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>电话</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>特殊情况说明（非必填）</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>手写签名</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>审批编号</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>创建时间</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>创建人</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>当前负责人</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>审批结果</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>审批状态</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>更新时间</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>创建人部门</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>审批单标题</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>审批状态</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>审批结果</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>创建时间</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>完成时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>历史审批人</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>耗时(时:分:秒)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>发起人工号</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>发起人UserID</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>创建人</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>创建人部门</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>历史审批人</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>审批记录</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>当前负责人</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>请假类型</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>开始时间</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>结束时间</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>时长</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>请假事由</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>休假地点</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>图片</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>电话</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>特殊情况说明（非必填）</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>手写签名</t>
         </is>
       </c>
     </row>
@@ -264,123 +252,116 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T5ga7oAFQLaNDTtd9rG7vA09081751950599</t>
+          <t>B01tJADdSCKU4fInb4u-9w09081753664809</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>202507081256000398130</t>
+          <t>年假</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>敖婷钰提交的请假</t>
+          <t>2025-07-28 上午</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>审批中</t>
+          <t>2025-08-06 下午</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>8天</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-07-08 12:56:39</t>
+          <t>看病</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t/>
+          <t>武汉</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2:11:18</t>
-        </is>
-      </c>
-      <c r="J2"/>
+          <t/>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>+86-13080666676</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>212619413525686255</t>
+          <t>看病</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>敖婷钰</t>
+          <t>已签名</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>协管员交流,旅检二科</t>
+          <t>202507280906000494449</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t/>
+          <t>2025-07-28 09:06:49</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>敖婷钰|212619413525686255|提交申请|2025-07-08 12:56:39|提交申请</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>李想</t>
-        </is>
-      </c>
+          <t>张翱</t>
+        </is>
+      </c>
+      <c r="P2"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>年假</t>
+          <t>审批通过</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>2025-07-14 上午</t>
+          <t>已结束</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>2025-07-14 下午</t>
+          <t>2025-07-31 09:59:46</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>1天</t>
+          <t>协管员交流,办公室</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>请年假探亲</t>
+          <t>张翱提交的请假</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>湖北武汉</t>
+          <t>袁锋,李琼</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t/>
+          <t>72:52:57</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>+86-17354416079</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>已签名</t>
+          <t>张翱|提交申请|2025-07-28 09:06:49|提交申请;
+袁锋|科长审批|2025-07-31 09:40:51|同意|同意|;
+李琼|关领导审批|2025-07-31 09:59:46|同意;
+许一然,柳杨,刘小娟,陈长飞|抄送人事|2025-07-31 09:59:46|抄送</t>
         </is>
       </c>
     </row>
@@ -392,121 +373,115 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>_Nij_ceyTaCFqP8aNk7EsA09081751948258</t>
+          <t>y3y-sUPyRfSNPhTEeSoFyg09081753337036</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>202507081217000387469</t>
+          <t>年假</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>柳杨提交的请假</t>
+          <t>2025-07-28 上午</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>已结束</t>
+          <t>2025-07-28 下午</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>审批通过</t>
+          <t>1天</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-07-08 12:17:38</t>
+          <t/>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-07-08 12:39:06</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0:21:28</t>
-        </is>
-      </c>
-      <c r="J3"/>
+          <t/>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>+86-13628674428</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>023251642768851413</t>
+          <t/>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>柳杨</t>
+          <t>已签名</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>协管员交流,人事政工科</t>
+          <t>202507241403000567916</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>刘小娟</t>
+          <t>2025-07-24 14:03:56</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>柳杨|023251642768851413|提交申请|2025-07-08 12:17:38|提交申请;
-刘小娟|051720334120950024|科长审批|2025-07-08 12:39:05|同意|同意|;
-许一然,柳杨,刘小娟,陈长飞|023251642768851413|抄送人事|2025-07-08 12:39:05|抄送</t>
+          <t>陶叶</t>
         </is>
       </c>
       <c r="P3"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>年假</t>
+          <t>审批通过</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>2025-07-10 上午</t>
+          <t>已结束</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2025-07-10 下午</t>
+          <t>2025-07-25 06:57:10</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1天</t>
+          <t>协管员交流,旅检一科</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>年休假一天</t>
+          <t>陶叶提交的请假</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>梅思寒</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t/>
+          <t>16:53:14</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>+86-15377099633</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>已签名</t>
+          <t>陶叶|提交申请|2025-07-24 14:03:56|提交申请;
+梅思寒|科长审批|2025-07-25 06:57:10|同意;
+许一然,柳杨,刘小娟,陈长飞|抄送人事|2025-07-25 06:57:10|抄送</t>
         </is>
       </c>
     </row>
@@ -518,121 +493,115 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vzs83lYXS8OuPskIlwoptA09081751946857</t>
+          <t>IAj9tyyFSi2GQM5NbGOkmQ09081753317266</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>202507081154000170863</t>
+          <t>年假</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>王洪梅提交的请假</t>
+          <t>2025-07-25 上午</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>已结束</t>
+          <t>2025-07-25 下午</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>审批通过</t>
+          <t>1天</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-07-08 11:54:17</t>
+          <t>申请休年假</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-07-08 12:11:28</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0:0:32</t>
-        </is>
-      </c>
-      <c r="J4"/>
+          <t/>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>+86-13429857606</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>02090508503529318502</t>
+          <t/>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>王洪梅</t>
+          <t>已签名</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>协管员交流,旅检二科</t>
+          <t>202507240834000260011</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>李想</t>
+          <t>2025-07-24 08:34:26</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>王洪梅|02090508503529318502|提交申请|2025-07-08 11:54:17|提交申请;
-李想|1658454938844645|科长审批|2025-07-08 12:10:11|同意;
-许一然,柳杨,刘小娟,陈长飞|02090508503529318502|抄送人事|2025-07-08 12:10:11|抄送</t>
+          <t>史慧哲</t>
         </is>
       </c>
       <c r="P4"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>年假</t>
+          <t>审批通过</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>2025-07-11 上午</t>
+          <t>已结束</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2025-07-11 下午</t>
+          <t>2025-07-24 13:47:33</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>1天</t>
+          <t>协管员交流,旅检一科</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>年假</t>
+          <t>史慧哲提交的请假</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>宁夏</t>
+          <t>梅思寒</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t/>
+          <t>5:13:7</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>+86-15071105442</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>已签名</t>
+          <t>史慧哲|提交申请|2025-07-24 08:34:26|提交申请;
+梅思寒|科长审批|2025-07-24 13:47:33|同意;
+许一然,柳杨,刘小娟,陈长飞|抄送人事|2025-07-24 13:47:33|抄送</t>
         </is>
       </c>
     </row>
@@ -644,121 +613,115 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EYpXv_kYT3qUtWtqwxNS4g09081751946753</t>
+          <t>3xXany9lRNeCnInoQprvfw09081753245937</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>202507081152000331615</t>
+          <t>丧假</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>王洪梅提交的请假</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>已结束</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>审批通过</t>
+          <t>1天</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-07-08 11:52:33</t>
+          <t>家人去世</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-07-08 12:09:59</t>
+          <t>家中</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0:17:25</t>
-        </is>
-      </c>
-      <c r="J5"/>
+          <t/>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>+86-15971442707</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>02090508503529318502</t>
+          <t/>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>王洪梅</t>
+          <t>已签名</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>协管员交流,旅检二科</t>
+          <t>202507231245000375864</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>李想</t>
+          <t>2025-07-23 12:45:37</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>王洪梅|02090508503529318502|提交申请|2025-07-08 11:52:33|提交申请;
-李想|1658454938844645|科长审批|2025-07-08 12:09:58|同意;
-许一然,柳杨,刘小娟,陈长飞|02090508503529318502|抄送人事|2025-07-08 12:09:58|抄送</t>
+          <t>郑泽宇</t>
         </is>
       </c>
       <c r="P5"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>年假</t>
+          <t>审批通过</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>2025-07-08 上午</t>
+          <t>已结束</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2025-07-08 下午</t>
+          <t>2025-07-23 12:58:51</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>1天</t>
+          <t>协管员交流,旅检二科</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>年假</t>
+          <t>郑泽宇提交的请假</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>宁夏</t>
+          <t>李想</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t/>
+          <t>0:13:14</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>+86-15071105442</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>已签名</t>
+          <t>郑泽宇|提交申请|2025-07-23 12:45:37|提交申请;
+李想|科长审批|2025-07-23 12:58:51|同意;
+许一然,柳杨,刘小娟,陈长飞|抄送人事|2025-07-23 12:58:51|抄送</t>
         </is>
       </c>
     </row>
@@ -770,121 +733,115 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>JINID4ziSOSEEz541gn46w09081751770919</t>
+          <t>lEpAhHSNRvysbyKv2ZbiHA09081753065827</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>202507061101000590438</t>
+          <t>年假</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>史慧哲提交的请假</t>
+          <t>2025-07-23 上午</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>已结束</t>
+          <t>2025-07-23 下午</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>审批通过</t>
+          <t>1天</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-07-06 11:01:59</t>
+          <t>年假</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-07-06 16:54:42</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>5:52:42</t>
-        </is>
-      </c>
-      <c r="J6"/>
+          <t/>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>+86-18607112445</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>024420354821446621</t>
+          <t/>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>史慧哲</t>
+          <t>已签名</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>协管员交流,旅检一科</t>
+          <t>202507211043000473215</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>梅思寒</t>
+          <t>2025-07-21 10:43:47</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>史慧哲|024420354821446621|提交申请|2025-07-06 11:01:59|提交申请;
-梅思寒|241614282826499738|科长审批|2025-07-06 16:54:42|同意;
-许一然,柳杨,刘小娟,陈长飞|024420354821446621|抄送人事|2025-07-06 16:54:42|抄送</t>
+          <t>李晶</t>
         </is>
       </c>
       <c r="P6"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>年假</t>
+          <t>审批通过</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>2025-07-07 上午</t>
+          <t>已结束</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2025-07-07 下午</t>
+          <t>2025-07-21 10:46:17</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>1天</t>
+          <t>协管员交流,办公室</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>申请休年假一天</t>
+          <t>李晶提交的请假</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>袁锋</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t/>
+          <t>0:2:30</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>+86-13429857606</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>已签名</t>
+          <t>李晶|提交申请|2025-07-21 10:43:47|提交申请;
+袁锋|科长审批|2025-07-21 10:46:17|同意;
+许一然,柳杨,刘小娟,陈长飞|抄送人事|2025-07-21 10:46:17|抄送</t>
         </is>
       </c>
     </row>
@@ -896,122 +853,116 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AZopbxTTR7SJdywWdcRXHg09081751563895</t>
+          <t>U-05n53tSb68gmAa7VeKIQ09081752802612</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>202507040131000353163</t>
+          <t>年假</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>王翙提交的请假</t>
+          <t>2025-07-24 上午</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>已结束</t>
+          <t>2025-07-29 下午</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>审批通过</t>
+          <t>4天</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-07-04 01:31:35</t>
+          <t/>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-07-04 21:26:47</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>19:55:11</t>
-        </is>
-      </c>
-      <c r="J7"/>
+          <t/>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>+86-15377099633</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2603461409949678</t>
+          <t/>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>王翙</t>
+          <t>已签名</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>协管员交流,旅检一科</t>
+          <t>202507180936000520550</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>梅思寒</t>
+          <t>2025-07-18 09:36:52</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>王翙|2603461409949678|提交申请|2025-07-04 01:31:35|提交申请;
-梅思寒|241614282826499738|科长审批|2025-07-04 21:26:46|同意|同意|;
-许一然,柳杨,刘小娟,陈长飞|2603461409949678|抄送人事|2025-07-04 21:26:47|抄送;
-毕华山,杨斌员|2603461409949678|科长审批（抄送或签审批人）|2025-07-04 21:26:47|抄送</t>
+          <t>柳杨</t>
         </is>
       </c>
       <c r="P7"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>年假</t>
+          <t>审批通过</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>2025-07-13 上午</t>
+          <t>已结束</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2025-07-13 下午</t>
+          <t>2025-07-22 15:01:22</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>1天</t>
+          <t>协管员交流,人事政工科</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t/>
+          <t>柳杨提交的请假</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>刘小娟,周建军</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t/>
+          <t>101:24:30</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>+86-15827071319</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>已签名</t>
+          <t>柳杨|提交申请|2025-07-18 09:36:52|提交申请;
+刘小娟|科长审批|2025-07-22 08:59:29|同意|同意|;
+周建军|关领导审批|2025-07-22 15:01:22|同意;
+许一然,柳杨,刘小娟,陈长飞|抄送人事|2025-07-22 15:01:22|抄送</t>
         </is>
       </c>
     </row>
@@ -1023,123 +974,115 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>o8rld0MRQQetgZbDSFkBHQ09081751512243</t>
+          <t>c-zgf1aLROKfAk5RvSoh9Q09081752654704</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>202507031110000436397</t>
+          <t>年假</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>陶文杰提交的请假</t>
+          <t>2025-07-28 上午</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>已结束</t>
+          <t>2025-07-28 下午</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>审批通过</t>
+          <t>1天</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-07-03 11:10:43</t>
+          <t>休年假</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-07-03 14:42:15</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>3:31:31</t>
-        </is>
-      </c>
-      <c r="J8"/>
+          <t/>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>+86-18186664464</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>276402420737847999</t>
+          <t/>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>陶文杰</t>
+          <t>已签名</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>协管员交流,旅检三科</t>
+          <t>202507161631000441815</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>周建军,周志程</t>
+          <t>2025-07-16 16:31:44</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>陶文杰|276402420737847999|提交申请|2025-07-03 11:10:43|提交申请;
-周志程|246217354421557116|科长审批|2025-07-03 11:52:51|同意;
-秦昊|276402420737847999|科长审批（抄送或签审批人）|2025-07-03 11:52:52|抄送;
-周建军|024709686521539913|关领导审批|2025-07-03 14:42:15|同意;
-许一然,柳杨,刘小娟,陈长飞|276402420737847999|抄送人事|2025-07-03 14:42:15|抄送</t>
+          <t>吴锦秀</t>
         </is>
       </c>
       <c r="P8"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>育儿假</t>
+          <t>审批通过</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>2025-07-21 上午</t>
+          <t>已结束</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2025-08-02 下午</t>
+          <t>2025-07-24 13:47:40</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>5天</t>
+          <t>协管员交流,旅检一科</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>请假</t>
+          <t>吴锦秀提交的请假</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>梅思寒</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>https://static.dingtalk.com/media/lQDPD4kXqdYYapXNBJLNBq-wqX-ASvEtbGoIRS14sRKbAA_1711_1170.jpg,https://static.dingtalk.com/media/lQDPM4wGjjkcmpXNBIvNByawdSnkQ_P0M1cIRS14sRKbAQ_1830_1163.jpg</t>
+          <t>1:19:47</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>+86-18571553673</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>实际休假：7月21日、24日、27日、30日；8月2日</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>已签名</t>
+          <t>吴锦秀|提交申请|2025-07-16 16:31:44|提交申请;
+梅思寒|科长审批|2025-07-24 13:47:40|同意;
+许一然,柳杨,刘小娟,陈长飞|抄送人事|2025-07-24 13:47:41|抄送</t>
         </is>
       </c>
     </row>
@@ -1151,122 +1094,1079 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>32s6XOygSumqP109o2xMxA09081751355100</t>
+          <t>cM7dq9uNR4ii_DB_BI3SNg09081752364766</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>202507011531000402426</t>
+          <t>年假</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>黄楚婷提交的请假</t>
+          <t>2025-07-15 下午</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>已结束</t>
+          <t>2025-07-16 下午</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>审批通过</t>
+          <t>1天</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-07-01 15:31:40</t>
+          <t>旅游</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-07-01 15:49:40</t>
+          <t>黄山</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0:17:59</t>
-        </is>
-      </c>
-      <c r="J9"/>
+          <t/>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>+86-13720323962</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>185213072539918113</t>
+          <t/>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>黄楚婷</t>
+          <t>已签名</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>协管员交流,查验科</t>
+          <t>202507130759000268360</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>尤明浩,周建军</t>
+          <t>2025-07-13 07:59:26</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>黄楚婷|185213072539918113|提交申请|2025-07-01 15:31:40|提交申请;
-尤明浩|013620176123505983|科长审批|2025-07-01 15:48:04|同意;
-周建军|024709686521539913|关领导审批|2025-07-01 15:49:39|同意;
-许一然,柳杨,刘小娟,陈长飞|185213072539918113|抄送人事|2025-07-01 15:49:40|抄送</t>
+          <t>汪德红</t>
         </is>
       </c>
       <c r="P9"/>
       <c r="Q9" t="inlineStr">
         <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>已结束</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>2025-07-13 13:37:03</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>协管员交流,旅检一科</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>汪德红提交的请假</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>梅思寒</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>5:37:38</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>汪德红|提交申请|2025-07-13 07:59:26|提交申请;
+梅思寒|科长审批|2025-07-13 13:37:03|同意;
+许一然,柳杨,刘小娟,陈长飞|抄送人事|2025-07-13 13:37:04|抄送</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>T5ga7oAFQLaNDTtd9rG7vA09081751950599</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>年假</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-07-14 上午</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-07-14 下午</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1天</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>请年假探亲</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>湖北武汉</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>+86-17354416079</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>已签名</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>202507081256000398130</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-07-08 12:56:39</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>敖婷钰</t>
+        </is>
+      </c>
+      <c r="P10"/>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>已结束</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>2025-07-15 11:08:12</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>协管员交流,旅检二科</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>敖婷钰提交的请假</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>李想</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>166:11:32</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>敖婷钰|提交申请|2025-07-08 12:56:39|提交申请;
+李想|科长审批|2025-07-15 11:08:12|同意;
+许一然,柳杨,刘小娟,陈长飞|抄送人事|2025-07-15 11:08:12|抄送</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>_Nij_ceyTaCFqP8aNk7EsA09081751948258</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-07-10 上午</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2025-07-10 下午</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1天</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>年休假一天</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>+86-15377099633</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>已签名</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>202507081217000387469</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2025-07-08 12:17:38</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>柳杨</t>
+        </is>
+      </c>
+      <c r="P11"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>已结束</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>2025-07-08 12:39:05</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>协管员交流,人事政工科</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>柳杨提交的请假</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>刘小娟</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0:21:28</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>柳杨|提交申请|2025-07-08 12:17:38|提交申请;
+刘小娟|科长审批|2025-07-08 12:39:05|同意|同意|;
+许一然,柳杨,刘小娟,陈长飞|抄送人事|2025-07-08 12:39:05|抄送</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>vzs83lYXS8OuPskIlwoptA09081751946857</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2025-07-11 上午</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2025-07-11 下午</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1天</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>宁夏</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>+86-15071105442</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>已签名</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>202507081154000170863</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2025-07-08 11:54:17</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>王洪梅</t>
+        </is>
+      </c>
+      <c r="P12"/>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>已结束</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>2025-07-08 12:10:11</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>协管员交流,旅检二科</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>王洪梅提交的请假</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>李想</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0:0:32</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>王洪梅|提交申请|2025-07-08 11:54:17|提交申请;
+李想|科长审批|2025-07-08 12:10:11|同意;
+许一然,柳杨,刘小娟,陈长飞|抄送人事|2025-07-08 12:10:11|抄送</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>EYpXv_kYT3qUtWtqwxNS4g09081751946753</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2025-07-08 上午</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2025-07-08 下午</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1天</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>宁夏</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>+86-15071105442</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>已签名</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>202507081152000331615</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2025-07-08 11:52:33</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>王洪梅</t>
+        </is>
+      </c>
+      <c r="P13"/>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>已结束</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>2025-07-08 12:09:58</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>协管员交流,旅检二科</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>王洪梅提交的请假</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>李想</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0:17:25</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>王洪梅|提交申请|2025-07-08 11:52:33|提交申请;
+李想|科长审批|2025-07-08 12:09:58|同意;
+许一然,柳杨,刘小娟,陈长飞|抄送人事|2025-07-08 12:09:58|抄送</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>JINID4ziSOSEEz541gn46w09081751770919</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>2025-07-07 上午</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2025-07-07 下午</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1天</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>申请休年假一天</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>+86-13429857606</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>已签名</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>202507061101000590438</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2025-07-06 11:01:59</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>史慧哲</t>
+        </is>
+      </c>
+      <c r="P14"/>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>已结束</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>2025-07-06 16:54:41</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>协管员交流,旅检一科</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>史慧哲提交的请假</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>梅思寒</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>5:52:42</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>史慧哲|提交申请|2025-07-06 11:01:59|提交申请;
+梅思寒|科长审批|2025-07-06 16:54:42|同意;
+许一然,柳杨,刘小娟,陈长飞|抄送人事|2025-07-06 16:54:42|抄送</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>AZopbxTTR7SJdywWdcRXHg09081751563895</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2025-07-13 上午</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2025-07-13 下午</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1天</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>+86-15827071319</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>已签名</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>202507040131000353163</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2025-07-04 01:31:35</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>王翙</t>
+        </is>
+      </c>
+      <c r="P15"/>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>已结束</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>2025-07-04 21:26:46</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>协管员交流,旅检一科</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>王翙提交的请假</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>梅思寒</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>19:55:11</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>王翙|提交申请|2025-07-04 01:31:35|提交申请;
+梅思寒|科长审批|2025-07-04 21:26:46|同意|同意|;
+许一然,柳杨,刘小娟,陈长飞|抄送人事|2025-07-04 21:26:47|抄送;
+毕华山,杨斌员|科长审批（抄送或签审批人）|2025-07-04 21:26:47|抄送</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>o8rld0MRQQetgZbDSFkBHQ09081751512243</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>育儿假</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2025-07-21 上午</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2025-08-02 下午</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5天</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>请假</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://static.dingtalk.com/media/lQDPD4kXqdYYapXNBJLNBq-wqX-ASvEtbGoIRS14sRKbAA_1711_1170.jpg,https://static.dingtalk.com/media/lQDPM4wGjjkcmpXNBIvNByawdSnkQ_P0M1cIRS14sRKbAQ_1830_1163.jpg</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>+86-18571553673</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>实际休假：7月21日、24日、27日、30日；8月2日</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>已签名</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>202507031110000436397</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2025-07-03 11:10:43</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>陶文杰</t>
+        </is>
+      </c>
+      <c r="P16"/>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>已结束</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>2025-07-03 14:42:15</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>协管员交流,旅检三科</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>陶文杰提交的请假</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>周志程,周建军</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>3:31:31</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>陶文杰|提交申请|2025-07-03 11:10:43|提交申请;
+周志程|科长审批|2025-07-03 11:52:51|同意;
+秦昊|科长审批（抄送或签审批人）|2025-07-03 11:52:52|抄送;
+周建军|关领导审批|2025-07-03 14:42:15|同意;
+许一然,柳杨,刘小娟,陈长飞|抄送人事|2025-07-03 14:42:15|抄送</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>32s6XOygSumqP109o2xMxA09081751355100</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>年假</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025-07-07 上午</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>2025-07-11 下午</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>5天</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>年假</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>广西省</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>+86-13995582302</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
+      <c r="K17" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>已签名</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>202507011531000402426</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>2025-07-01 15:31:40</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>黄楚婷</t>
+        </is>
+      </c>
+      <c r="P17"/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>审批通过</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>已结束</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>2025-07-01 15:49:39</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>协管员交流,查验科</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>黄楚婷提交的请假</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>周建军,尤明浩</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>0:17:59</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>黄楚婷|提交申请|2025-07-01 15:31:40|提交申请;
+尤明浩|科长审批|2025-07-01 15:48:04|同意;
+周建军|关领导审批|2025-07-01 15:49:39|同意;
+许一然,柳杨,刘小娟,陈长飞|抄送人事|2025-07-01 15:49:40|抄送</t>
         </is>
       </c>
     </row>
